--- a/manuscript/table/adbm_table.xlsx
+++ b/manuscript/table/adbm_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anubhav/Google Drive/GitHub/C1_method_v2/manuscript/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6797A214-2966-AC4F-A73C-48D82C95BE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6C5A59-843F-C64A-8618-CF7382E0209F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1020" windowWidth="23880" windowHeight="16180" xr2:uid="{C6678A94-3924-1B48-A7BC-DFD78B1D9AE8}"/>
+    <workbookView xWindow="-23880" yWindow="500" windowWidth="23880" windowHeight="16180" xr2:uid="{C6678A94-3924-1B48-A7BC-DFD78B1D9AE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,10 +111,10 @@
     <t>Assumed value of $\frac{-3}{4}$ based on empirical data</t>
   </si>
   <si>
-    <t>Arbitrary. No effect on structure. See SI S4</t>
-  </si>
-  <si>
-    <t>Connectance affected by the product $nah$. See SI S4</t>
+    <t>Connectance affected by the product $nah$*.</t>
+  </si>
+  <si>
+    <t>Arbitrary. No effect on structure*.</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -536,7 +536,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -563,8 +563,8 @@
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>29</v>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -610,8 +610,8 @@
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>29</v>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
